--- a/visualization/app store presentation outline.xlsx
+++ b/visualization/app store presentation outline.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\nss_data_analytics\projects\app-trader-team_whatsapp\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37E18D-DBCF-4BF6-8620-E208B7B68FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A233C-81FC-4D31-A828-592AF62D40FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F9F234D-021A-41AE-8A0A-3873D292D114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="common_genres" sheetId="2" r:id="rId2"/>
-    <sheet name="genres_installs" sheetId="3" r:id="rId3"/>
+    <sheet name="ratings_store" sheetId="7" r:id="rId2"/>
+    <sheet name="common_genres" sheetId="2" r:id="rId3"/>
+    <sheet name="genres_installs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="23" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
   <si>
     <t>1. MARK</t>
   </si>
@@ -257,6 +261,24 @@
   <si>
     <t>genres_installs(billions)</t>
   </si>
+  <si>
+    <t>Sum of cnt</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>user_stars</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +458,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -463,6 +485,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,18 +506,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1504,6 +1530,2822 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Common</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Apps Genres by Ratings</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE13-463D-9061-37916E6A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE13-463D-9061-37916E6A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE13-463D-9061-37916E6A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE13-463D-9061-37916E6A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE13-463D-9061-37916E6A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="335890816"/>
+        <c:axId val="335882616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="335890816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Genres</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335882616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="335882616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335890816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Common</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Apps Genres by Ratings</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F47-402A-B1F5-F6BED034C77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F47-402A-B1F5-F6BED034C77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F47-402A-B1F5-F6BED034C77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>34</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F47-402A-B1F5-F6BED034C77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Action</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Arcade</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Casual</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Entertainment</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sports</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F47-402A-B1F5-F6BED034C77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="335890816"/>
+        <c:axId val="335882616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="335890816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Genres</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335882616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="335882616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335890816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>APPS GENRES COMMON TO BOTH STORES</a:t>
             </a:r>
           </a:p>
@@ -1884,7 +4726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2589,6 +5431,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4101,6 +7023,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4683,10 +8611,91 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA4A2D1-7964-42AD-89D2-5FC9ED9255B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB53A6C-D156-4232-9EC0-2152251CCFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4727,7 +8736,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4766,6 +8775,755 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44065.914327777777" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="92" xr:uid="{368DC730-17B0-4430-81F7-93B140915DB7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C93" sheet="ratings_store" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="genres" numFmtId="0">
+      <sharedItems count="50">
+        <s v="Food &amp; Drink"/>
+        <s v="Arcade"/>
+        <s v="Casual"/>
+        <s v="Simulation"/>
+        <s v="Action"/>
+        <s v="Productivity"/>
+        <s v="Entertainment"/>
+        <s v="Puzzle"/>
+        <s v="Communication"/>
+        <s v="Sports"/>
+        <s v="Photography"/>
+        <s v="Racing"/>
+        <s v="Social"/>
+        <s v="Strategy"/>
+        <s v="Adventure;Action &amp; Adventure"/>
+        <s v="Shopping"/>
+        <s v="Finance"/>
+        <s v="News &amp; Magazines"/>
+        <s v="Role Playing"/>
+        <s v="Education"/>
+        <s v="Education;Education"/>
+        <s v="Entertainment;Music &amp; Video"/>
+        <s v="Puzzle;Action &amp; Adventure"/>
+        <s v="Racing;Action &amp; Adventure"/>
+        <s v="Tools"/>
+        <s v="Arcade;Action &amp; Adventure"/>
+        <s v="Business"/>
+        <s v="Card"/>
+        <s v="Casual;Action &amp; Adventure"/>
+        <s v="Casual;Pretend Play"/>
+        <s v="Health &amp; Fitness"/>
+        <s v="Puzzle;Brain Games"/>
+        <s v="Simulation;Action &amp; Adventure"/>
+        <s v="Travel &amp; Local"/>
+        <s v="Action;Action &amp; Adventure"/>
+        <s v="Adventure"/>
+        <s v="Board"/>
+        <s v="Books &amp; Reference"/>
+        <s v="Card;Brain Games"/>
+        <s v="Lifestyle"/>
+        <s v="Trivia"/>
+        <s v="Weather"/>
+        <s v="Maps &amp; Navigation"/>
+        <s v="Education;Music &amp; Video"/>
+        <s v="Educational;Action &amp; Adventure"/>
+        <s v="Art &amp; Design"/>
+        <s v="Board;Action &amp; Adventure"/>
+        <s v="Music"/>
+        <s v="Video Players &amp; Editors"/>
+        <s v="Entertainment;Brain Games"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cnt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+    </cacheField>
+    <cacheField name="user_stars" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3" maxValue="5" count="5">
+        <n v="5"/>
+        <n v="4.5"/>
+        <n v="4"/>
+        <n v="3.5"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="39"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="34"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4EE6B6F-B300-4BA3-9684-74700567631C}" name="PivotTable13" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="51">
+        <item x="4"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="37"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="30"/>
+        <item x="39"/>
+        <item x="42"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="31"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="32"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="48"/>
+        <item x="41"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of cnt" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5067,8 +9825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B625976F-4C07-446C-9F8C-039FE70D7481}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,146 +9851,146 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="I2" s="23" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5245,152 +10003,152 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="I14" s="21" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="I14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5441,164 +10199,164 @@
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5607,146 +10365,146 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="I38" s="23" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="I38" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5797,146 +10555,146 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="I51" s="24" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="I51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -5949,146 +10707,146 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="I63" s="23" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="I63" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6109,18 +10867,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B27:M36"/>
+    <mergeCell ref="B2:F11"/>
+    <mergeCell ref="I2:M11"/>
+    <mergeCell ref="B14:F23"/>
+    <mergeCell ref="I14:M23"/>
+    <mergeCell ref="G18:H19"/>
     <mergeCell ref="B38:F47"/>
     <mergeCell ref="I38:M47"/>
     <mergeCell ref="B51:F60"/>
     <mergeCell ref="I51:M60"/>
     <mergeCell ref="B63:F72"/>
     <mergeCell ref="I63:M72"/>
-    <mergeCell ref="B27:M36"/>
-    <mergeCell ref="B2:F11"/>
-    <mergeCell ref="I2:M11"/>
-    <mergeCell ref="B14:F23"/>
-    <mergeCell ref="I14:M23"/>
-    <mergeCell ref="G18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6128,6 +10886,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C274F010-BC2D-4FA8-84DE-DC75E5ADE5D4}">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="28">
+        <v>3</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="28">
+        <v>5</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>138</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8E8DD-15BE-470B-9950-B81CB46D1F46}">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -6764,7 +12703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD54B59-CCE9-40D6-8C8B-6EB1AE413D51}">
   <dimension ref="A1:D51"/>
   <sheetViews>
